--- a/Output/Tables/Table 1 - Categorical.xlsx
+++ b/Output/Tables/Table 1 - Categorical.xlsx
@@ -1,21 +1,80 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sjifradeleeuw/GitHub/Replication-Code-Democratic-Support-And-Left-Right-Dimension/Output/Tables/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED91E19D-FE0C-FD4E-996F-0EA4DC43913D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
+  <si>
+    <t>values</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>proportion</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>Experience</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>Sex</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>evs1999</t>
+  </si>
+  <si>
+    <t>Survey-Year</t>
+  </si>
+  <si>
+    <t>evs2008</t>
+  </si>
+  <si>
+    <t>wvs1994</t>
+  </si>
+  <si>
+    <t>wvs1999</t>
+  </si>
+  <si>
+    <t>wvs2005</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -59,15 +118,23 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -109,7 +176,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -141,9 +208,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -175,6 +260,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -350,321 +453,153 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>values</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>n</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>proportion</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>4</v>
       </c>
       <c r="B2">
         <v>12340</v>
       </c>
       <c r="C2">
-        <v>0.1558218529415479</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Experience</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+        <v>0.15582185294154791</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>6</v>
       </c>
       <c r="B3">
         <v>66853</v>
       </c>
       <c r="C3">
-        <v>0.8441781470584522</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Experience</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+        <v>0.84417814705845218</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>12340</v>
+        <v>57481</v>
       </c>
       <c r="C4">
-        <v>0.1558218529415479</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Age of Exposure</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+        <v>0.5096872589269088</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>9</v>
       </c>
       <c r="B5">
-        <v>2217</v>
+        <v>55296</v>
       </c>
       <c r="C5">
-        <v>0.02799489853901229</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Age of Exposure</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+        <v>0.49031274107309109</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>48952</v>
+        <v>26973</v>
       </c>
       <c r="C6">
-        <v>0.6181354412637481</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Age of Exposure</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+        <v>0.23912022056542051</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>15684</v>
+        <v>41361</v>
       </c>
       <c r="C7">
-        <v>0.1980478072556918</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Age of Exposure</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+        <v>0.36667228127410217</v>
+      </c>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>15997</v>
+        <v>23983</v>
       </c>
       <c r="C8">
-        <v>0.1418161186514304</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Age (Categorical)</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+        <v>0.2126133633567078</v>
+      </c>
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>20839</v>
+        <v>5770</v>
       </c>
       <c r="C9">
-        <v>0.1847412700242019</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Age (Categorical)</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+        <v>5.1152028794070978E-2</v>
+      </c>
+      <c r="D9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>22267</v>
+        <v>14714</v>
       </c>
       <c r="C10">
-        <v>0.1974007322630119</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Age (Categorical)</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="B11">
-        <v>53698</v>
-      </c>
-      <c r="C11">
-        <v>0.4760418790613559</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Age (Categorical)</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>evs1990</t>
-        </is>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Survey-Year</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>evs1999</t>
-        </is>
-      </c>
-      <c r="B13">
-        <v>26973</v>
-      </c>
-      <c r="C13">
-        <v>0.2391202205654205</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Survey-Year</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>evs2008</t>
-        </is>
-      </c>
-      <c r="B14">
-        <v>41361</v>
-      </c>
-      <c r="C14">
-        <v>0.3666722812741022</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Survey-Year</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>wvs1994</t>
-        </is>
-      </c>
-      <c r="B15">
-        <v>23983</v>
-      </c>
-      <c r="C15">
-        <v>0.2126133633567078</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>Survey-Year</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>wvs1999</t>
-        </is>
-      </c>
-      <c r="B16">
-        <v>5770</v>
-      </c>
-      <c r="C16">
-        <v>0.05115202879407098</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>Survey-Year</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>wvs2005</t>
-        </is>
-      </c>
-      <c r="B17">
-        <v>14714</v>
-      </c>
-      <c r="C17">
-        <v>0.1304421060096985</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>Survey-Year</t>
-        </is>
+        <v>0.13044210600969849</v>
+      </c>
+      <c r="D10" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Output/Tables/Table 1 - Categorical.xlsx
+++ b/Output/Tables/Table 1 - Categorical.xlsx
@@ -1,80 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10209"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sjifradeleeuw/GitHub/Replication-Code-Democratic-Support-And-Left-Right-Dimension/Output/Tables/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED91E19D-FE0C-FD4E-996F-0EA4DC43913D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
-  <si>
-    <t>values</t>
-  </si>
-  <si>
-    <t>n</t>
-  </si>
-  <si>
-    <t>proportion</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>Experience</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>Female</t>
-  </si>
-  <si>
-    <t>Sex</t>
-  </si>
-  <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>evs1999</t>
-  </si>
-  <si>
-    <t>Survey-Year</t>
-  </si>
-  <si>
-    <t>evs2008</t>
-  </si>
-  <si>
-    <t>wvs1994</t>
-  </si>
-  <si>
-    <t>wvs1999</t>
-  </si>
-  <si>
-    <t>wvs2005</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -118,23 +59,15 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -176,7 +109,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -208,27 +141,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -260,24 +175,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -453,153 +350,195 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>4</v>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>values</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>proportion</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="B2">
-        <v>12340</v>
+        <v>12217</v>
       </c>
       <c r="C2">
-        <v>0.15582185294154791</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>6</v>
+        <v>0.1664917755761185</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Experience</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="B3">
-        <v>66853</v>
+        <v>61162</v>
       </c>
       <c r="C3">
-        <v>0.84417814705845218</v>
-      </c>
-      <c r="D3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>7</v>
+        <v>0.8335082244238815</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Experience</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
       </c>
       <c r="B4">
-        <v>57481</v>
+        <v>53809</v>
       </c>
       <c r="C4">
-        <v>0.5096872589269088</v>
-      </c>
-      <c r="D4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>9</v>
+        <v>0.510062088250628</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Sex</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
       </c>
       <c r="B5">
-        <v>55296</v>
+        <v>51686</v>
       </c>
       <c r="C5">
-        <v>0.49031274107309109</v>
-      </c>
-      <c r="D5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>10</v>
+        <v>0.489937911749372</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Sex</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>evs1999</t>
+        </is>
       </c>
       <c r="B6">
-        <v>26973</v>
+        <v>21896</v>
       </c>
       <c r="C6">
-        <v>0.23912022056542051</v>
-      </c>
-      <c r="D6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>12</v>
+        <v>0.2075155191205042</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Survey-Year</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>evs2008</t>
+        </is>
       </c>
       <c r="B7">
-        <v>41361</v>
+        <v>40795</v>
       </c>
       <c r="C7">
-        <v>0.36667228127410217</v>
-      </c>
-      <c r="D7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>13</v>
+        <v>0.3866274937212719</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Survey-Year</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>wvs1994</t>
+        </is>
       </c>
       <c r="B8">
-        <v>23983</v>
+        <v>22734</v>
       </c>
       <c r="C8">
-        <v>0.2126133633567078</v>
-      </c>
-      <c r="D8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>14</v>
+        <v>0.2154575178884519</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Survey-Year</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>wvs1999</t>
+        </is>
       </c>
       <c r="B9">
-        <v>5770</v>
+        <v>5671</v>
       </c>
       <c r="C9">
-        <v>5.1152028794070978E-2</v>
-      </c>
-      <c r="D9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>15</v>
+        <v>0.05374591290337866</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Survey-Year</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>wvs2005</t>
+        </is>
       </c>
       <c r="B10">
-        <v>14714</v>
+        <v>14419</v>
       </c>
       <c r="C10">
-        <v>0.13044210600969849</v>
-      </c>
-      <c r="D10" t="s">
-        <v>11</v>
+        <v>0.1366535563663934</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Survey-Year</t>
+        </is>
       </c>
     </row>
   </sheetData>
